--- a/asanas.xlsx
+++ b/asanas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katxi\OneDrive\personal_projects\Yoga\sorteio_asanas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{683D48E9-E08E-4091-94E0-50736A26DAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AD7BDE-0D2A-4718-A5FC-477D5C604646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06D698E1-CBE9-460F-8E27-A62FDB29DE37}"/>
   </bookViews>
@@ -33,11 +33,414 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
+  <si>
+    <t>ÁSANAS</t>
+  </si>
+  <si>
+    <t>Sequência A</t>
+  </si>
+  <si>
+    <t>Sequência B</t>
+  </si>
+  <si>
+    <t>Surya-Namascar Clássico</t>
+  </si>
+  <si>
+    <t>Surya - Namascar A</t>
+  </si>
+  <si>
+    <t>Surya - Namascar B</t>
+  </si>
+  <si>
+    <t>Tadásana</t>
+  </si>
+  <si>
+    <t>Utkatásana</t>
+  </si>
+  <si>
+    <t>Parighásana</t>
+  </si>
+  <si>
+    <t>Utthita Trikonásana</t>
+  </si>
+  <si>
+    <t>Parivritta Trikonásana</t>
+  </si>
+  <si>
+    <t>Utthita Parsvakonásana</t>
+  </si>
+  <si>
+    <t>Parivritta Parsvakonásana</t>
+  </si>
+  <si>
+    <t>Virabadhrásana I</t>
+  </si>
+  <si>
+    <t>Virabadhrásana II</t>
+  </si>
+  <si>
+    <t>Uttanásana I</t>
+  </si>
+  <si>
+    <t>Uttanásana II</t>
+  </si>
+  <si>
+    <t>Padangusthásana</t>
+  </si>
+  <si>
+    <t>Padahástasana</t>
+  </si>
+  <si>
+    <t>Variante Padahastásana</t>
+  </si>
+  <si>
+    <t>Prasarita Padottanásana I</t>
+  </si>
+  <si>
+    <t>Parsvottanásana</t>
+  </si>
+  <si>
+    <t>Dandásana</t>
+  </si>
+  <si>
+    <t>Sukhásana</t>
+  </si>
+  <si>
+    <t>Samanásana</t>
+  </si>
+  <si>
+    <t>Virásana</t>
+  </si>
+  <si>
+    <t>Ciclo Virásana</t>
+  </si>
+  <si>
+    <t>Gomukhásana</t>
+  </si>
+  <si>
+    <t>Baddha Konásana</t>
+  </si>
+  <si>
+    <t>Siddhásana</t>
+  </si>
+  <si>
+    <t>Padmásana</t>
+  </si>
+  <si>
+    <t>Pascimottanásana</t>
+  </si>
+  <si>
+    <t>Janú Sirsásna</t>
+  </si>
+  <si>
+    <t>Parivritta Janu Sirsásana</t>
+  </si>
+  <si>
+    <t>Arhda Baddha Padma Pascimottanásana</t>
+  </si>
+  <si>
+    <t>Triang Mukhaikapada Pascimottanásana</t>
+  </si>
+  <si>
+    <t>Kraunkásana</t>
+  </si>
+  <si>
+    <t>Upavista Konásana</t>
+  </si>
+  <si>
+    <t>Parsva Upavista Konásana</t>
+  </si>
+  <si>
+    <t>Urdhva Muhka Pascimottanásana I</t>
+  </si>
+  <si>
+    <t>Kurmásana</t>
+  </si>
+  <si>
+    <t>Maricyásana (Pé)</t>
+  </si>
+  <si>
+    <t>Bharadvajásana (cadeira)</t>
+  </si>
+  <si>
+    <t>Bharadvajásana I</t>
+  </si>
+  <si>
+    <t>Bharadvajásana II</t>
+  </si>
+  <si>
+    <t>Raja Baddha Matsyendrásana</t>
+  </si>
+  <si>
+    <t>Maricyásana I</t>
+  </si>
+  <si>
+    <t>Maricyásana II</t>
+  </si>
+  <si>
+    <t>Maricyásana III</t>
+  </si>
+  <si>
+    <t>Maricyásana IV</t>
+  </si>
+  <si>
+    <t>Pasásana</t>
+  </si>
+  <si>
+    <t>Adho-Muhka Svanásana</t>
+  </si>
+  <si>
+    <t>Urdhva-Muhka Svánasana</t>
+  </si>
+  <si>
+    <t>Salabhásana I</t>
+  </si>
+  <si>
+    <t>Bhujangásana 1,2,3</t>
+  </si>
+  <si>
+    <t>Dhanurásana</t>
+  </si>
+  <si>
+    <t>Bhekásana</t>
+  </si>
+  <si>
+    <t>Urdhva Prasarita Padásana</t>
+  </si>
+  <si>
+    <t>Supta Padanghustásana</t>
+  </si>
+  <si>
+    <t>Jathara Parivartanásana</t>
+  </si>
+  <si>
+    <t>Supta Virásana</t>
+  </si>
+  <si>
+    <t>Matsyásana</t>
+  </si>
+  <si>
+    <t>Viparita Dandásana (com cadeira)</t>
+  </si>
+  <si>
+    <t>Prep. Urdhva Dahnurásana (3)</t>
+  </si>
+  <si>
+    <t>Ustrásana</t>
+  </si>
+  <si>
+    <t>Dvi Pada Viparita Dandásana</t>
+  </si>
+  <si>
+    <t>Urdhva Dhanurásana</t>
+  </si>
+  <si>
+    <t>Urdhva Dhanurásana de Tadásana (4)</t>
+  </si>
+  <si>
+    <t>Urdhva Dhanurásana de Sirsásana (4)</t>
+  </si>
+  <si>
+    <t>Eka Páda Rajakapotásana</t>
+  </si>
+  <si>
+    <t>Kapotásana</t>
+  </si>
+  <si>
+    <t>Caturanga Dandásana</t>
+  </si>
+  <si>
+    <t>Paripurna Navásana</t>
+  </si>
+  <si>
+    <t>Vasisthásana</t>
+  </si>
+  <si>
+    <t>Lolásana com blocos / sem blocos</t>
+  </si>
+  <si>
+    <t>Eka hasta Buhjásana</t>
+  </si>
+  <si>
+    <t>Bakásana</t>
+  </si>
+  <si>
+    <t>Bakásana de Sirsásana (4)</t>
+  </si>
+  <si>
+    <t>Bhujapidhásana</t>
+  </si>
+  <si>
+    <t>Tittibhásana</t>
+  </si>
+  <si>
+    <t>Parsva Bakásana</t>
+  </si>
+  <si>
+    <t>Parsva Bakásana de Sirsásana (4)</t>
+  </si>
+  <si>
+    <t>Astavakrásana</t>
+  </si>
+  <si>
+    <t>Mayurásana</t>
+  </si>
+  <si>
+    <t>Vrksásana</t>
+  </si>
+  <si>
+    <t>Anantásana</t>
+  </si>
+  <si>
+    <t>Garudásana</t>
+  </si>
+  <si>
+    <t>Utthita Hasta Padangusthásana I</t>
+  </si>
+  <si>
+    <t>Utthita Hasta Padangusthásana II</t>
+  </si>
+  <si>
+    <t>Ardha Chandrásana</t>
+  </si>
+  <si>
+    <t>Parivritta Ardha Chandrásana</t>
+  </si>
+  <si>
+    <t>Virabadhrásana III</t>
+  </si>
+  <si>
+    <t>Natarajásana</t>
+  </si>
+  <si>
+    <t>Setubandha Sarvangásana</t>
+  </si>
+  <si>
+    <t>Salamba Sarvangásana I</t>
+  </si>
+  <si>
+    <t>Halásana</t>
+  </si>
+  <si>
+    <t>Eka Pada Sarvangásana</t>
+  </si>
+  <si>
+    <t>Parsvaikapada Sarvangásana</t>
+  </si>
+  <si>
+    <t>Karnapidásana</t>
+  </si>
+  <si>
+    <t>Parsva Halásana</t>
+  </si>
+  <si>
+    <t>Supta Konásana</t>
+  </si>
+  <si>
+    <t>Parsva Sarvangásana</t>
+  </si>
+  <si>
+    <t>Urdhva Padmásana em Sarvang.</t>
+  </si>
+  <si>
+    <t>Pindásana em Sarvang.</t>
+  </si>
+  <si>
+    <t>Parsva Urdhva Padmásana em Sarvang.</t>
+  </si>
+  <si>
+    <t>Salamba Sisásana I</t>
+  </si>
+  <si>
+    <t>Parsva Sirsásana</t>
+  </si>
+  <si>
+    <t>Parivritta Eka Pada Sisásana</t>
+  </si>
+  <si>
+    <t>Eka Pada Sirsásana</t>
+  </si>
+  <si>
+    <t>Parsvaikapada Sirsásana</t>
+  </si>
+  <si>
+    <t>Baddha Konásana em Sirsásana</t>
+  </si>
+  <si>
+    <t>Upavistha Konásana em Sirsásana</t>
+  </si>
+  <si>
+    <t>Virásana em Sirsásana</t>
+  </si>
+  <si>
+    <t>Parsva Virásana em Sirsásana</t>
+  </si>
+  <si>
+    <t>Urdhva Dandhásana</t>
+  </si>
+  <si>
+    <t>Urdhva Padmásana em Sirsásana</t>
+  </si>
+  <si>
+    <t>Salamba Sisásana II</t>
+  </si>
+  <si>
+    <t>Adho-Muhka Vrksásana</t>
+  </si>
+  <si>
+    <t>Pinca Mayurásana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savásana I </t>
+  </si>
+  <si>
+    <t>Savásana II</t>
+  </si>
+  <si>
+    <t>Savásana III</t>
+  </si>
+  <si>
+    <t>Savásana IV</t>
+  </si>
+  <si>
+    <t>Supta Baddha Konásana</t>
+  </si>
+  <si>
+    <t>Savásana I + II</t>
+  </si>
+  <si>
+    <t>Viparita Karani</t>
+  </si>
+  <si>
+    <t>Setubandha Sarvangásana c/ banco</t>
+  </si>
+  <si>
+    <t>Deitar sobre bolsters Cruzados</t>
+  </si>
+  <si>
+    <t>Salamba Sarvangásana com cadeira</t>
+  </si>
+  <si>
+    <t>Halásana na cadeira</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -64,8 +467,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +784,674 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D313AFFF-CA23-4039-AC4D-3785131309F0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/asanas.xlsx
+++ b/asanas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katxi\OneDrive\personal_projects\Yoga\sorteio_asanas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AD7BDE-0D2A-4718-A5FC-477D5C604646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C76F40C-DBD0-44B6-A9AC-582CC2E2C85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06D698E1-CBE9-460F-8E27-A62FDB29DE37}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
-  <si>
-    <t>ÁSANAS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="143">
   <si>
     <t>Sequência A</t>
   </si>
@@ -424,13 +421,55 @@
   </si>
   <si>
     <t>Halásana na cadeira</t>
+  </si>
+  <si>
+    <t>ASANAS</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>Sequences and Suryas</t>
+  </si>
+  <si>
+    <t>Standing Postures</t>
+  </si>
+  <si>
+    <t>Sitting Postures</t>
+  </si>
+  <si>
+    <t>Twists</t>
+  </si>
+  <si>
+    <t>Ventral Decubitus</t>
+  </si>
+  <si>
+    <t>Dorsal Decubitus</t>
+  </si>
+  <si>
+    <t>Retroflections</t>
+  </si>
+  <si>
+    <t>Muscle Postures</t>
+  </si>
+  <si>
+    <t>Balance Postures</t>
+  </si>
+  <si>
+    <t>Inverted Postures</t>
+  </si>
+  <si>
+    <t>Relaxation</t>
+  </si>
+  <si>
+    <t>Reconstituent Postures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +480,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -467,9 +514,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,670 +832,1064 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D313AFFF-CA23-4039-AC4D-3785131309F0}">
-  <dimension ref="A1:A131"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="B88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="B89" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="B90" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="B93" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="B94" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="B95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="B96" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="B99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="B101" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="B102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="B104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="B105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="B106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="B107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="B108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="B109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="B110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="B111" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="B112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="B113" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="B114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="B115" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="B116" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="B117" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="B118" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="B119" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="B120" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="B121" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="B122" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="B123" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="B124" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="B125" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="B126" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="B127" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="B128" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>122</v>
+      </c>
+      <c r="B129" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="B130" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>129</v>
+      <c r="B131" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/asanas.xlsx
+++ b/asanas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katxi\OneDrive\personal_projects\Yoga\sorteio_asanas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C76F40C-DBD0-44B6-A9AC-582CC2E2C85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C723F1C-3DA6-4CDF-8067-023691BF8484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06D698E1-CBE9-460F-8E27-A62FDB29DE37}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="148">
   <si>
     <t>Sequência A</t>
   </si>
@@ -463,6 +463,21 @@
   </si>
   <si>
     <t>Reconstituent Postures</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>F/L</t>
+  </si>
+  <si>
+    <t>DIDACTIC ANGLE</t>
   </si>
 </sst>
 </file>
@@ -832,1064 +847,1458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D313AFFF-CA23-4039-AC4D-3785131309F0}">
-  <dimension ref="A1:B131"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.88671875" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
       <c r="B109" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
       <c r="B110" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
       <c r="B111" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
       <c r="B112" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
       <c r="B113" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
       <c r="B114" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
       <c r="B115" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
       <c r="B116" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
       <c r="B117" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
       <c r="B118" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
       <c r="B119" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
       <c r="B120" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
       <c r="B121" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>120</v>
       </c>
       <c r="B122" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>121</v>
       </c>
       <c r="B123" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>122</v>
       </c>
       <c r="B124" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>123</v>
       </c>
       <c r="B125" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>124</v>
       </c>
       <c r="B126" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>125</v>
       </c>
       <c r="B127" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>126</v>
       </c>
       <c r="B128" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>122</v>
       </c>
       <c r="B129" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
       <c r="B130" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>128</v>
       </c>
       <c r="B131" t="s">
         <v>142</v>
+      </c>
+      <c r="C131" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/asanas.xlsx
+++ b/asanas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katxi\OneDrive\personal_projects\Yoga\sorteio_asanas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C723F1C-3DA6-4CDF-8067-023691BF8484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCD0AFD-CE5A-4D6D-8D64-6266B3AB4E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06D698E1-CBE9-460F-8E27-A62FDB29DE37}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="178">
   <si>
     <t>Sequência A</t>
   </si>
@@ -478,6 +478,96 @@
   </si>
   <si>
     <t>DIDACTIC ANGLE</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>Atenção!</t>
+  </si>
+  <si>
+    <t>SUsasi</t>
+  </si>
+  <si>
+    <t>suSAsi</t>
+  </si>
+  <si>
+    <t>susaSI</t>
+  </si>
+  <si>
+    <t>Perna p/juri estirada</t>
+  </si>
+  <si>
+    <t>Perna p/juri padmasana</t>
+  </si>
+  <si>
+    <t>Queixo, ombros, costelas</t>
+  </si>
+  <si>
+    <t>Ponte, arco cima</t>
+  </si>
+  <si>
+    <t>Atenção angulo Didático</t>
+  </si>
+  <si>
+    <t>Dobrar tapete cobrir as 3 mantas</t>
+  </si>
+  <si>
+    <t>2 un.</t>
+  </si>
+  <si>
+    <t>4 un.</t>
+  </si>
+  <si>
+    <t>9 un.</t>
+  </si>
+  <si>
+    <t>10 un.</t>
+  </si>
+  <si>
+    <t>P.127  3 un.</t>
+  </si>
+  <si>
+    <t>1 ou 2 un.</t>
+  </si>
+  <si>
+    <t>7 un.         1ª costela fora do banco</t>
+  </si>
+  <si>
+    <t>P. 129  2 un.</t>
+  </si>
+  <si>
+    <t>5 un. Cadeira contra parede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 un. </t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>45º</t>
+  </si>
+  <si>
+    <t>arco</t>
+  </si>
+  <si>
+    <t>sapo</t>
+  </si>
+  <si>
+    <t>30º, 60º, 90º</t>
+  </si>
+  <si>
+    <t>CS - Bloco na cadeira, 2u</t>
+  </si>
+  <si>
+    <t>PF - Perna trás estirada</t>
+  </si>
+  <si>
+    <t>PF - Perna trás padmásana</t>
   </si>
 </sst>
 </file>
@@ -847,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D313AFFF-CA23-4039-AC4D-3785131309F0}">
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D90" sqref="D90:D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,9 +948,10 @@
     <col min="1" max="1" width="33.88671875" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>129</v>
       </c>
@@ -870,8 +961,11 @@
       <c r="C1" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -881,8 +975,11 @@
       <c r="C2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -893,7 +990,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -904,7 +1001,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -915,7 +1012,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -926,7 +1023,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -937,7 +1034,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -948,7 +1045,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -959,7 +1056,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1066,11 @@
       <c r="C10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -980,8 +1080,11 @@
       <c r="C11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1094,11 @@
       <c r="C12" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1002,8 +1108,11 @@
       <c r="C13" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1014,7 +1123,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1025,7 +1134,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1036,7 +1145,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1047,7 +1156,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1058,7 +1167,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1069,7 +1178,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1080,7 +1189,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1091,7 +1200,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1102,7 +1211,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1113,7 +1222,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1123,8 +1232,11 @@
       <c r="C24" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1134,8 +1246,11 @@
       <c r="C25" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1146,7 +1261,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1157,7 +1272,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1167,8 +1282,11 @@
       <c r="C28" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1179,7 +1297,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1189,8 +1307,11 @@
       <c r="C30" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1201,7 +1322,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1212,7 +1333,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1223,7 +1344,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1234,7 +1355,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1245,7 +1366,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1256,7 +1377,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1266,8 +1387,11 @@
       <c r="C37" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1278,7 +1402,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1289,7 +1413,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1300,7 +1424,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1311,7 +1435,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1321,8 +1445,11 @@
       <c r="C42" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1332,8 +1459,11 @@
       <c r="C43" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1344,7 +1474,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1355,7 +1485,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1366,7 +1496,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1376,8 +1506,11 @@
       <c r="C47" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1387,8 +1520,11 @@
       <c r="C48" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1398,8 +1534,11 @@
       <c r="C49" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1409,8 +1548,11 @@
       <c r="C50" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1421,7 +1563,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1432,7 +1574,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1443,7 +1585,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1454,7 +1596,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1464,8 +1606,11 @@
       <c r="C55" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1475,8 +1620,11 @@
       <c r="C56" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1486,8 +1634,11 @@
       <c r="C57" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1497,8 +1648,11 @@
       <c r="C58" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1509,7 +1663,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1520,7 +1674,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1531,7 +1685,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1542,7 +1696,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1553,7 +1707,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1564,7 +1718,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1575,7 +1729,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1586,7 +1740,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1596,8 +1750,11 @@
       <c r="C67" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1608,7 +1765,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -1619,7 +1776,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -1630,7 +1787,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -1640,8 +1797,11 @@
       <c r="C71" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -1652,7 +1812,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -1663,7 +1823,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -1674,7 +1834,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -1685,7 +1845,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -1696,7 +1856,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -1707,7 +1867,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -1718,7 +1878,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -1728,8 +1888,11 @@
       <c r="C79" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -1739,8 +1902,11 @@
       <c r="C80" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -1751,7 +1917,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -1762,7 +1928,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -1773,7 +1939,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -1784,7 +1950,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -1795,7 +1961,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -1806,7 +1972,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -1816,8 +1982,11 @@
       <c r="C87" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -1827,8 +1996,11 @@
       <c r="C88" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -1838,8 +2010,11 @@
       <c r="C89" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -1849,8 +2024,11 @@
       <c r="C90" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -1860,8 +2038,11 @@
       <c r="C91" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -1872,7 +2053,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -1883,7 +2064,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -1894,7 +2075,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -1904,8 +2085,11 @@
       <c r="C95" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -2092,7 +2276,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -2103,7 +2287,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -2114,7 +2298,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -2125,7 +2309,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -2136,7 +2320,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -2147,7 +2331,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -2158,7 +2342,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -2169,7 +2353,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -2179,8 +2363,11 @@
       <c r="C120" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -2190,8 +2377,11 @@
       <c r="C121" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -2201,8 +2391,11 @@
       <c r="C122" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -2212,8 +2405,11 @@
       <c r="C123" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -2223,8 +2419,11 @@
       <c r="C124" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -2235,7 +2434,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -2245,8 +2444,11 @@
       <c r="C126" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -2256,8 +2458,11 @@
       <c r="C127" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -2267,8 +2472,11 @@
       <c r="C128" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>122</v>
       </c>
@@ -2278,8 +2486,11 @@
       <c r="C129" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -2289,8 +2500,11 @@
       <c r="C130" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -2299,6 +2513,9 @@
       </c>
       <c r="C131" t="s">
         <v>143</v>
+      </c>
+      <c r="D131" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/asanas.xlsx
+++ b/asanas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katxi\OneDrive\personal_projects\Yoga\sorteio_asanas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCD0AFD-CE5A-4D6D-8D64-6266B3AB4E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA164E1-B92A-46FB-BC7D-18192ABCEE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06D698E1-CBE9-460F-8E27-A62FDB29DE37}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="298">
   <si>
     <t>Sequência A</t>
   </si>
@@ -568,6 +568,366 @@
   </si>
   <si>
     <t>PF - Perna trás padmásana</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>Pés sempre à largura das ancas/no chaturanga/urdhva-mukha manter sempre a polpa dos dedos pés no chão</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Na sequencia adho-mukha /urdhva-mukha colocar os pés unidos e colocar a polpa dos dedos dos pés no chão na transição</t>
+  </si>
+  <si>
+    <t>Inicio e final de cada ciclo com as mãos em Namaskarásana</t>
+  </si>
+  <si>
+    <t>Inicio e final em Tadásana</t>
+  </si>
+  <si>
+    <t>Palmas das mãos unidas</t>
+  </si>
+  <si>
+    <t>Face para tecto</t>
+  </si>
+  <si>
+    <t>Palma mão no chão ao lado exterior logo atrás do pé (não consegue: mão na canela, e explicar como seria ), mão superior para o centro da sala, queixo em linha com externo</t>
+  </si>
+  <si>
+    <t>Distância entre pés menor que Utthita Trik. (colocar pé logo atrás da linha de pulso quando vem Adho-Mukha), Palma mão no chão lado exterior ao lado do pé  (ou mão na canela, e explicar)</t>
+  </si>
+  <si>
+    <t>Mão lado exterior do pé, colocada ao lado do mesmo, Dedos para a frente, Face para o tecto</t>
+  </si>
+  <si>
+    <t>Mão colocada ao lado exterior e logo atrás do pé, Dedos dirigidos para trás, Face para o tecto, calcanhar 30º para dentro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancas para a parte da frente do tapete, calcanhar 30º para dentro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancas para o lado , calcanhar 30º para dentro</t>
+  </si>
+  <si>
+    <t>Braços cruzados</t>
+  </si>
+  <si>
+    <t>Palmas das mãos no chão de um lado e do outro do calcanhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dedos das mãos agarram dedos grandes pés </t>
+  </si>
+  <si>
+    <t>Palmas das mãos por baixo sola dos pés</t>
+  </si>
+  <si>
+    <t>Pés paralelos, palmas mãos na linha arco pés</t>
+  </si>
+  <si>
+    <t>Palmas mãos unidas entre omoplatas, calcanhar 30º para dentro</t>
+  </si>
+  <si>
+    <t>Mãos de um lado e do outro das ancas (se necessário demonstra com placa)</t>
+  </si>
+  <si>
+    <t>Fácil - pernas cruzadas, palmas nos joelhos</t>
+  </si>
+  <si>
+    <t>Calcanhar frente a calcanhar, mudra joelhos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atenção tronco vertical e palmas das mãos viradas para trás no chão atrás das nádegas ( com placa se necessário) </t>
+  </si>
+  <si>
+    <t>Supta virásana - executar variante iniciante (braços esticados), ou intermédia (cotovelos no chão) e explicar</t>
+  </si>
+  <si>
+    <t>Joelho E por cima, Cotovelo D para tecto</t>
+  </si>
+  <si>
+    <t>Tronco verticalizado</t>
+  </si>
+  <si>
+    <t>Tornozelos sobrepostos</t>
+  </si>
+  <si>
+    <t>Calcanhares na abdominal inferior D/E</t>
+  </si>
+  <si>
+    <t>Postura final pernas estiradas, mão fora agarra pulso dentro., face para baixo na canela</t>
+  </si>
+  <si>
+    <t>Postura final perna estirada, mão fora agarra pulso dentro Face para baixo na canela</t>
+  </si>
+  <si>
+    <t>Mão sup. agarra sola do pé sup., mão inf. agarra o calcanhar, Face para o tecto</t>
+  </si>
+  <si>
+    <t>Mão fora agarra calcanhar, outra mão atrás das costas agarra dedo grande em padmasana</t>
+  </si>
+  <si>
+    <t>Mão fora agarra pulso dentro</t>
+  </si>
+  <si>
+    <t>Atenção - perna flectida em Virásana, mãos calcanhar (ou a segurar canela se necessário, placa se precisa)</t>
+  </si>
+  <si>
+    <t>Postura final peito no chão, face em frente, mãos agarram dedos grandes dos pés</t>
+  </si>
+  <si>
+    <t>Postura final peito sobre canela, Mão fora agarra pulso dentro, Face para baixo na canela</t>
+  </si>
+  <si>
+    <t>Postura final pernas estiradas com canelas junto à face, Mãos agarram calcanhares</t>
+  </si>
+  <si>
+    <t>Postura final peito no chão pernas estiradas face para o chão, palmas das mãos no chão dedos dirigidos para trás</t>
+  </si>
+  <si>
+    <t>Palmas das mãos na parede, perna flectida sobre bloco na cadeira é a que está junto à parede</t>
+  </si>
+  <si>
+    <t>Costas da cadeira para o jurí</t>
+  </si>
+  <si>
+    <t>Usar placa se necessário, peito pé de fora, sobre sola do pé de dentro</t>
+  </si>
+  <si>
+    <t>Usar placa se necessário, explicar se não executar com perna em padmásana</t>
+  </si>
+  <si>
+    <t>Usar placa se necessário. Braço passa lado ext. da coxa e por baixo, mão agarra braço que está atrás costas. Perna inf. Flectida, calcanhar junto ao glúteo</t>
+  </si>
+  <si>
+    <t>Perna de trás flectida, braço à frente da tíbia, flexão em frente sobre perna estirada, queixo no joelho</t>
+  </si>
+  <si>
+    <t>Igual à anterior, mas queixo no joelho perna padmasana</t>
+  </si>
+  <si>
+    <t>Braço D passa ext. Coxa e tíbia E e mão D agarra E atrás das costas.  Torção e face para trás</t>
+  </si>
+  <si>
+    <t>Igual, mas perna de trás em padmásana</t>
+  </si>
+  <si>
+    <t>Braço inf. Passa lado ext. Coxa e tíbia, dedos das mãos atrás costas  (placa debaixo calcanhares se necessário)</t>
+  </si>
+  <si>
+    <t>Joelhos fora do chão, peito dos pés no chão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palmas das mãos e planta dos pés para cima, dedos dirigidos para trás, face em frente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joelhos no chão.  1ª- zona interior dos cotovelos para dentro, 2ª e 3ª zona interior cotovelos para a frente do tapete.  3ª Cabeça para trás </t>
+  </si>
+  <si>
+    <t>Mãos agarram por fora logo abaixo tornozelos</t>
+  </si>
+  <si>
+    <t>Mãos sobre peito dos pés com dedos dirigidos para frente, face em frente</t>
+  </si>
+  <si>
+    <t>Braços estirados para trás, palmas das mãos para o tecto</t>
+  </si>
+  <si>
+    <t>Braço do júri agarra dedo grande do pé da perna puxada junto à face, face na canela, palma da outra mão no chão</t>
+  </si>
+  <si>
+    <t>Pernas estiradas a 90º não tocam no chão, braços estendidos altura ombros, palma das mãos para o tecto</t>
+  </si>
+  <si>
+    <t>postura final executa-se sem placa, costas no chão, braços estendidos para trás, palma das mãos para o tecto</t>
+  </si>
+  <si>
+    <t>Igual ao anterior, mas pernas estão em Padmásana</t>
+  </si>
+  <si>
+    <t>Stiky-mat dobrado no tampo cadeira, perna estiradas, sola pés na parede, calcanhares no chão, braços rotação externa</t>
+  </si>
+  <si>
+    <t>1º mãos nas nádegas polegares cocix, 2º palmas mãos atrás dos joelhos, 3º braços estirados para trás</t>
+  </si>
+  <si>
+    <t>Mãos na sola dos pés (dedos pés no chão se necessário)</t>
+  </si>
+  <si>
+    <t>Braços, mãos e cabeça = Sirsásana, pés unidos</t>
+  </si>
+  <si>
+    <t>1º polegares cocix, 2º mãos atrás joelhos, 3º Braços estendidos Prep. Urdhva Dhanu 4º Urdhva Dhanurásana</t>
+  </si>
+  <si>
+    <t>1º Sirsásana, 2º Virásana em Sirsásana, 3º Dvi Pada Viparita Dandásana, 4º Urdhva Dhanurásana</t>
+  </si>
+  <si>
+    <t>Mãos agarram peito do pé atrás, testa junto ao calcanhar, perna flectida calcanhar frente zona pélvica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Joelhos e peito pés no chão à largura das ancas, Mãos puxam fr.das coxas, topo da cabeça na sola dos pés</t>
+  </si>
+  <si>
+    <t>Corpo em prancha, peito a dois dedos do chão</t>
+  </si>
+  <si>
+    <t>Pernas estiradas, braços paralelos estirados em frente, palmas das mãos dirigidas para os joelhos, face em frente</t>
+  </si>
+  <si>
+    <t>Mão agarra dedo grande do pé estirado para o tecto</t>
+  </si>
+  <si>
+    <t>tronco inclinado para frente e pés para trás c/ blocos, tronco na vertical sem blocos e de lado</t>
+  </si>
+  <si>
+    <t>Perna p/ júri sobre ombro, a outra estirada fora do chão</t>
+  </si>
+  <si>
+    <t>Joelhos ao lado externo dos ombros e axilas</t>
+  </si>
+  <si>
+    <t>Tornozelos cruzados em frente ao corpo, parte trás joelhos ao lado ext. dos ombros</t>
+  </si>
+  <si>
+    <t>Pernas estiradas, face em frente. Zona interna joelhos ao lado ext. dos ombros</t>
+  </si>
+  <si>
+    <t>Pé superior passa por baixo e puxa pé inferior para cima</t>
+  </si>
+  <si>
+    <t>Cotovelos no umbigo, polegares forma linha recta paraleal parte fr. do tapete, dedos para trás, pés elevados</t>
+  </si>
+  <si>
+    <t>Mãos unidas braços para cima</t>
+  </si>
+  <si>
+    <t>Mão agarra dedo grande da perna estendida para o tecto, antebraço no chão</t>
+  </si>
+  <si>
+    <t>Braço do lado da Perna que passa por cima, passa por baixo do outro braço. As 2 pernas flectidas</t>
+  </si>
+  <si>
+    <t>Mão segura dedo grande do pé da perna estendida, a mão do júri na anca</t>
+  </si>
+  <si>
+    <t>Ambos braços estendidos para os lados, Mão segura dedo grande do pé da perna que está estendida laterlamente</t>
+  </si>
+  <si>
+    <t>Ponta dos dedos da mão dois palmos à frente do pé de apoio (usar bloco 3ª altura, se necessário), palma da mão superior para a frente do tapete</t>
+  </si>
+  <si>
+    <t>Ponta dos dedos da mão contrária dois palmos à frente do pé de apoio (bloco se necessário), palma da mão superior para a frente do tapete</t>
+  </si>
+  <si>
+    <t>Mãos passam por cima da cabeça e agarram peito do pé da perna flectida atrás das costas, face em frente</t>
+  </si>
+  <si>
+    <t>Pernas estiradas, pões unidos, palmas mãos na zona dos rins, dedos para dentro</t>
+  </si>
+  <si>
+    <t>3 mantas, cinto, placa  - mãos no fim da zona dorsal, ombros e 7ª cervical no material, cabeça no chão</t>
+  </si>
+  <si>
+    <t>mãos na zona lombar</t>
+  </si>
+  <si>
+    <t>Dedos do pé no chão na linha do ombro</t>
+  </si>
+  <si>
+    <t>Dedos do pé no chão para lado exterior</t>
+  </si>
+  <si>
+    <t>(utilizar blocos se necessário) braços envolvem parte posterior das coxas e joelhos</t>
+  </si>
+  <si>
+    <t>Pés juntos para lado exterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pés afastados lateralmente, dedos no chão </t>
+  </si>
+  <si>
+    <t>Zona sagrada fica apoiada na palma da mão D se inclinamos pernas e bacia ao lado D</t>
+  </si>
+  <si>
+    <t>Joelhos p/ tecto</t>
+  </si>
+  <si>
+    <t>Braços envolvem pernas em padmásana, joelhos no chão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igual a parsva sarvangasana, mas com urdhva padmasana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mãos entrelaçadas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacia e pernas rodam lado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pernas em tesoura com rotação da bacia </t>
+  </si>
+  <si>
+    <t>Dedos do pé no chão em frente ao rosto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sola dos pés unida, aponta para tecto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pernas afastadas lateralmente </t>
+  </si>
+  <si>
+    <t>Coxas na vertical, calcanhares aos glúteos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igual ao anterior, mas roda bacia e pernas </t>
+  </si>
+  <si>
+    <t>Pernas estiradas paralelas ao chão</t>
+  </si>
+  <si>
+    <t>joelhos apontam para o chão</t>
+  </si>
+  <si>
+    <t>Palmas das mãos no chão</t>
+  </si>
+  <si>
+    <t>Só as palmas das mãos no chão (corpo invertido)</t>
+  </si>
+  <si>
+    <t>Só os cotovelos, antebraços e palmas das mãos no chão</t>
+  </si>
+  <si>
+    <t>1 manta, 1 venda</t>
+  </si>
+  <si>
+    <t>4 mantas: 3 longitudinais, 1 dobrada baixo da cabeça</t>
+  </si>
+  <si>
+    <t>1 Bolster, 1 mini bolster, 1 venda, 3 pesos, 1 acrescento tapete, 2 cintos (1 abaixo joelhos outro a meio das coxas)</t>
+  </si>
+  <si>
+    <t>1 Bolster, 1 mini bolster, 1 venda, 3 pesos, 1 acrescento tapete, 2 cintos (1 abaixo joelhos outro a meio das coxas), 1 bloco</t>
+  </si>
+  <si>
+    <t>Braços ao longo do corpo - 1 bolster, 1 cobertor, 1 cinto</t>
+  </si>
+  <si>
+    <t>Pés na parede UNIDOS, Bolster a 2 palmos da parede, glúteos e zona lombar apoiada, braços estendidos a 45º ou para trás (com manta e bolster), palmas mãos p/ tecto</t>
+  </si>
+  <si>
+    <t>1 banco, 1 acrescento tapete, 2 mantas, 2 bolsters, 1 cinto a meio das coxas</t>
+  </si>
+  <si>
+    <t>ancas alinhadas com bolster transversal, ombros fora do bolster, braços estendidos para trás</t>
+  </si>
+  <si>
+    <t>Dedos das mãos cruzados atrás da cabeça, glúteos no chão, costas no bolster - 1 bolster, 1 cinto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cadeira, 2 mantas, 1 acrescento tapete, 1 bolster. Pés na parede. </t>
+  </si>
+  <si>
+    <t>Braços estendidos de um lado e do outro dos pés da cadeira - 2 mantas cobertas por tapete, 1 cadeira, 1 acrescento de tapete sobre o tampo, 1 manta por cima</t>
   </si>
 </sst>
 </file>
@@ -937,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D313AFFF-CA23-4039-AC4D-3785131309F0}">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90:D91"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,9 +1309,10 @@
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="158.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>129</v>
       </c>
@@ -964,8 +1325,11 @@
       <c r="D1" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -978,8 +1342,11 @@
       <c r="D2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -989,8 +1356,11 @@
       <c r="C3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1000,8 +1370,11 @@
       <c r="C4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1011,8 +1384,11 @@
       <c r="C5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1022,8 +1398,11 @@
       <c r="C6" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1034,7 +1413,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1044,8 +1423,11 @@
       <c r="C8" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1055,8 +1437,11 @@
       <c r="C9" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1069,8 +1454,11 @@
       <c r="D10" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1083,8 +1471,11 @@
       <c r="D11" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1097,8 +1488,11 @@
       <c r="D12" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1111,8 +1505,11 @@
       <c r="D13" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1122,8 +1519,11 @@
       <c r="C14" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1133,8 +1533,11 @@
       <c r="C15" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1547,11 @@
       <c r="C16" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1155,8 +1561,11 @@
       <c r="C17" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1166,8 +1575,11 @@
       <c r="C18" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1177,8 +1589,11 @@
       <c r="C19" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1189,7 +1604,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1199,8 +1614,11 @@
       <c r="C21" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1210,8 +1628,11 @@
       <c r="C22" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1221,8 +1642,11 @@
       <c r="C23" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1235,8 +1659,11 @@
       <c r="D24" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1249,8 +1676,11 @@
       <c r="D25" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1260,8 +1690,11 @@
       <c r="C26" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1271,8 +1704,11 @@
       <c r="C27" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1285,8 +1721,11 @@
       <c r="D28" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1296,8 +1735,11 @@
       <c r="C29" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1310,8 +1752,11 @@
       <c r="D30" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1321,8 +1766,11 @@
       <c r="C31" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1332,8 +1780,11 @@
       <c r="C32" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1343,8 +1794,11 @@
       <c r="C33" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1354,8 +1808,11 @@
       <c r="C34" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1365,8 +1822,11 @@
       <c r="C35" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1376,8 +1836,11 @@
       <c r="C36" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1390,8 +1853,11 @@
       <c r="D37" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1401,8 +1867,11 @@
       <c r="C38" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1412,8 +1881,11 @@
       <c r="C39" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1423,8 +1895,11 @@
       <c r="C40" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1434,8 +1909,11 @@
       <c r="C41" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1448,8 +1926,11 @@
       <c r="D42" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1462,8 +1943,11 @@
       <c r="D43" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1473,8 +1957,11 @@
       <c r="C44" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1484,8 +1971,11 @@
       <c r="C45" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1495,8 +1985,11 @@
       <c r="C46" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1509,8 +2002,11 @@
       <c r="D47" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1523,8 +2019,11 @@
       <c r="D48" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1537,8 +2036,11 @@
       <c r="D49" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1551,8 +2053,11 @@
       <c r="D50" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1562,8 +2067,11 @@
       <c r="C51" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1574,7 +2082,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1584,8 +2092,11 @@
       <c r="C53" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1595,8 +2106,11 @@
       <c r="C54" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1609,8 +2123,11 @@
       <c r="D55" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1623,8 +2140,11 @@
       <c r="D56" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1637,8 +2157,11 @@
       <c r="D57" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1651,8 +2174,11 @@
       <c r="D58" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1662,8 +2188,11 @@
       <c r="C59" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1673,8 +2202,11 @@
       <c r="C60" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1684,8 +2216,11 @@
       <c r="C61" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1695,8 +2230,11 @@
       <c r="C62" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1706,8 +2244,11 @@
       <c r="C63" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1717,8 +2258,11 @@
       <c r="C64" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1728,8 +2272,11 @@
       <c r="C65" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1739,8 +2286,11 @@
       <c r="C66" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1754,7 +2304,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1764,8 +2314,11 @@
       <c r="C68" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -1775,8 +2328,11 @@
       <c r="C69" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -1786,8 +2342,11 @@
       <c r="C70" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -1800,8 +2359,11 @@
       <c r="D71" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -1811,8 +2373,11 @@
       <c r="C72" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -1822,8 +2387,11 @@
       <c r="C73" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -1833,8 +2401,11 @@
       <c r="C74" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -1844,8 +2415,11 @@
       <c r="C75" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -1855,8 +2429,11 @@
       <c r="C76" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -1866,8 +2443,11 @@
       <c r="C77" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -1878,7 +2458,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -1891,8 +2471,11 @@
       <c r="D79" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -1905,8 +2488,11 @@
       <c r="D80" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -1917,7 +2503,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -1928,7 +2514,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -1938,8 +2524,11 @@
       <c r="C83" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -1949,8 +2538,11 @@
       <c r="C84" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -1960,8 +2552,11 @@
       <c r="C85" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -1971,8 +2566,11 @@
       <c r="C86" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -1985,8 +2583,11 @@
       <c r="D87" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -1999,8 +2600,11 @@
       <c r="D88" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -2013,8 +2617,11 @@
       <c r="D89" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -2027,8 +2634,11 @@
       <c r="D90" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -2041,8 +2651,11 @@
       <c r="D91" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -2053,7 +2666,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -2063,8 +2676,11 @@
       <c r="C93" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -2074,8 +2690,11 @@
       <c r="C94" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -2088,8 +2707,11 @@
       <c r="D95" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -2099,8 +2721,11 @@
       <c r="C96" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E96" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -2110,8 +2735,11 @@
       <c r="C97" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E97" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -2121,8 +2749,11 @@
       <c r="C98" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E98" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -2132,8 +2763,11 @@
       <c r="C99" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E99" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -2143,8 +2777,11 @@
       <c r="C100" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E100" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -2154,8 +2791,11 @@
       <c r="C101" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E101" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -2165,8 +2805,11 @@
       <c r="C102" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E102" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -2176,8 +2819,11 @@
       <c r="C103" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E103" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -2187,8 +2833,11 @@
       <c r="C104" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E104" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -2198,8 +2847,11 @@
       <c r="C105" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E105" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -2209,8 +2861,11 @@
       <c r="C106" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E106" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -2220,8 +2875,11 @@
       <c r="C107" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E107" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -2231,8 +2889,11 @@
       <c r="C108" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E108" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -2242,8 +2903,11 @@
       <c r="C109" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E109" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -2253,8 +2917,11 @@
       <c r="C110" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E110" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -2264,8 +2931,11 @@
       <c r="C111" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E111" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -2275,8 +2945,11 @@
       <c r="C112" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -2286,8 +2959,11 @@
       <c r="C113" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -2297,8 +2973,11 @@
       <c r="C114" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -2308,8 +2987,11 @@
       <c r="C115" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -2319,8 +3001,11 @@
       <c r="C116" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -2330,8 +3015,11 @@
       <c r="C117" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -2341,8 +3029,11 @@
       <c r="C118" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -2352,8 +3043,11 @@
       <c r="C119" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -2366,8 +3060,11 @@
       <c r="D120" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -2380,8 +3077,11 @@
       <c r="D121" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -2394,8 +3094,11 @@
       <c r="D122" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -2408,8 +3111,11 @@
       <c r="D123" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -2422,8 +3128,11 @@
       <c r="D124" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -2434,7 +3143,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -2447,8 +3156,11 @@
       <c r="D126" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -2461,8 +3173,11 @@
       <c r="D127" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -2475,8 +3190,11 @@
       <c r="D128" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>122</v>
       </c>
@@ -2489,8 +3207,11 @@
       <c r="D129" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -2503,8 +3224,11 @@
       <c r="D130" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -2516,6 +3240,9 @@
       </c>
       <c r="D131" t="s">
         <v>168</v>
+      </c>
+      <c r="E131" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
